--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucppt-my.sharepoint.com/personal/ritaquintela_ucp_pt/Documents/tuition-fees-simulator/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucppt-my.sharepoint.com/personal/ritaquintela_ucp_pt/Documents/Simulator-for-Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36117845-604C-431F-805B-8692D4F27CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{36117845-604C-431F-805B-8692D4F27CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEE2540B-AE5A-4C41-9E2B-0CF2180AA071}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{9B67CCE9-E6E1-4DD2-A0C9-0C7E062B745B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B67CCE9-E6E1-4DD2-A0C9-0C7E062B745B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Number of Credits</t>
-  </si>
-  <si>
-    <t>Tuition Fee (€)</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D9440-0719-469D-B305-240D88444E52}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,34 +396,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1">
         <v>1</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
         <v>300</v>
       </c>
     </row>
